--- a/Table2/SupplementalData_Table2.xlsx
+++ b/Table2/SupplementalData_Table2.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disco2024/Papers/EnPreparacion/DProtein/2026/EAAInProteinsAndMetabolism/QRAAsComparadoConDieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC2D997-F324-9042-B35D-F13B46BA8305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223A798-32FD-E443-BE46-2CD8DFD0A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{993AA049-BDEE-674B-9E28-9D2E9FED2612}"/>
   </bookViews>
   <sheets>
     <sheet name="RDA_RQAA_HumanWithoutNaNs_Multi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="152">
   <si>
     <t>RDA_RQAA_Human</t>
   </si>
@@ -473,6 +486,9 @@
   </si>
   <si>
     <t>Average RDA vs Human</t>
+  </si>
+  <si>
+    <t>p-value (T.test</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A4D0-6C93-AD46-9659-A60C13E21474}">
   <dimension ref="A1:ET151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68389,6 +68405,13 @@
         <f>AVERAGE(B127:B148)</f>
         <v>0.9591555090092968</v>
       </c>
+      <c r="C150" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150">
+        <f>_xlfn.T.TEST(B127:B148,B3:B125,2,3)</f>
+        <v>3.3889175200627476E-4</v>
+      </c>
     </row>
     <row r="151" spans="1:150" x14ac:dyDescent="0.2">
       <c r="A151" t="s">

--- a/Table2/SupplementalData_Table2.xlsx
+++ b/Table2/SupplementalData_Table2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disco2024/Papers/EnPreparacion/DProtein/2026/EAAInProteinsAndMetabolism/QRAAsComparadoConDieta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223A798-32FD-E443-BE46-2CD8DFD0A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291F8B7-DE68-AF47-B20E-D06D252E0EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{993AA049-BDEE-674B-9E28-9D2E9FED2612}"/>
+    <workbookView xWindow="900" yWindow="1420" windowWidth="24360" windowHeight="15540" activeTab="2" xr2:uid="{993AA049-BDEE-674B-9E28-9D2E9FED2612}"/>
   </bookViews>
   <sheets>
-    <sheet name="RDA_RQAA_HumanWithoutNaNs_Multi" sheetId="1" r:id="rId1"/>
+    <sheet name="RDA_RQAAGly" sheetId="1" r:id="rId1"/>
+    <sheet name="RDA_RQAAVal" sheetId="2" r:id="rId2"/>
+    <sheet name="RDA_RQAALeu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="156">
   <si>
     <t>RDA_RQAA_Human</t>
   </si>
@@ -489,6 +491,18 @@
   </si>
   <si>
     <t>p-value (T.test</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Avg Other organisms</t>
+  </si>
+  <si>
+    <t>Homo_sapiens</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10A4D0-6C93-AD46-9659-A60C13E21474}">
   <dimension ref="A1:ET151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A120" workbookViewId="0">
       <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
@@ -68425,4 +68439,3976 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0484AED-9686-A141-9542-7450C66CB38A}">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.96345237443440002</v>
+      </c>
+      <c r="D2">
+        <v>0.970926281062374</v>
+      </c>
+      <c r="E2">
+        <v>0.94436851238387598</v>
+      </c>
+      <c r="F2">
+        <v>0.97172222848738399</v>
+      </c>
+      <c r="G2">
+        <v>0.93002639418725197</v>
+      </c>
+      <c r="H2">
+        <v>0.90632770493473302</v>
+      </c>
+      <c r="I2">
+        <v>0.93291956367292606</v>
+      </c>
+      <c r="J2">
+        <v>0.96640505194158999</v>
+      </c>
+      <c r="K2">
+        <v>0.96684223265992997</v>
+      </c>
+      <c r="L2">
+        <v>0.92685658187487496</v>
+      </c>
+      <c r="M2">
+        <v>0.94443682246869898</v>
+      </c>
+      <c r="N2">
+        <v>0.97841394657008995</v>
+      </c>
+      <c r="O2">
+        <v>0.96069140876195602</v>
+      </c>
+      <c r="P2">
+        <v>0.96650263624297506</v>
+      </c>
+      <c r="Q2">
+        <v>0.97037718432887698</v>
+      </c>
+      <c r="R2">
+        <v>0.93156416522072805</v>
+      </c>
+      <c r="S2">
+        <v>0.96725307668448102</v>
+      </c>
+      <c r="T2">
+        <v>0.97201454694776201</v>
+      </c>
+      <c r="U2">
+        <v>0.958015666210837</v>
+      </c>
+      <c r="V2">
+        <v>0.95014404139126896</v>
+      </c>
+      <c r="W2">
+        <v>0.95189698279398705</v>
+      </c>
+      <c r="X2">
+        <v>0.96764320562158301</v>
+      </c>
+      <c r="Y2">
+        <v>0.97630849708060397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <v>0.96345237443440002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.96830835581109498</v>
+      </c>
+      <c r="E3">
+        <v>0.92443601062617498</v>
+      </c>
+      <c r="F3">
+        <v>0.97810491285879297</v>
+      </c>
+      <c r="G3">
+        <v>0.911965938641214</v>
+      </c>
+      <c r="H3">
+        <v>0.94494271051788803</v>
+      </c>
+      <c r="I3">
+        <v>0.98381551787572297</v>
+      </c>
+      <c r="J3">
+        <v>0.95700290451898296</v>
+      </c>
+      <c r="K3">
+        <v>0.97147757356100495</v>
+      </c>
+      <c r="L3">
+        <v>0.94859985943094904</v>
+      </c>
+      <c r="M3">
+        <v>0.96212261099043705</v>
+      </c>
+      <c r="N3">
+        <v>0.99551022900584196</v>
+      </c>
+      <c r="O3">
+        <v>0.96274625336475705</v>
+      </c>
+      <c r="P3">
+        <v>0.96019793509141205</v>
+      </c>
+      <c r="Q3">
+        <v>0.998791766627248</v>
+      </c>
+      <c r="R3">
+        <v>0.96300380808300401</v>
+      </c>
+      <c r="S3">
+        <v>0.98680706969288201</v>
+      </c>
+      <c r="T3">
+        <v>0.99753599143876304</v>
+      </c>
+      <c r="U3">
+        <v>0.95736226363291499</v>
+      </c>
+      <c r="V3">
+        <v>0.93256869492826999</v>
+      </c>
+      <c r="W3">
+        <v>0.93417799564265303</v>
+      </c>
+      <c r="X3">
+        <v>0.97241720306117396</v>
+      </c>
+      <c r="Y3">
+        <v>0.99282404406788605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>0.970926281062374</v>
+      </c>
+      <c r="C4">
+        <v>0.96830835581109498</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.985687298155143</v>
+      </c>
+      <c r="F4">
+        <v>0.99786403813934799</v>
+      </c>
+      <c r="G4">
+        <v>0.97647948523775197</v>
+      </c>
+      <c r="H4">
+        <v>0.97370439123992403</v>
+      </c>
+      <c r="I4">
+        <v>0.93379293450787904</v>
+      </c>
+      <c r="J4">
+        <v>0.99731582364204197</v>
+      </c>
+      <c r="K4">
+        <v>0.99914384653504096</v>
+      </c>
+      <c r="L4">
+        <v>0.92919959417754805</v>
+      </c>
+      <c r="M4">
+        <v>0.98408565157709904</v>
+      </c>
+      <c r="N4">
+        <v>0.98637385504458996</v>
+      </c>
+      <c r="O4">
+        <v>0.99791312538803101</v>
+      </c>
+      <c r="P4">
+        <v>0.99635669476907696</v>
+      </c>
+      <c r="Q4">
+        <v>0.97772110954215696</v>
+      </c>
+      <c r="R4">
+        <v>0.97252717426631596</v>
+      </c>
+      <c r="S4">
+        <v>0.99284944182875701</v>
+      </c>
+      <c r="T4">
+        <v>0.98156944246589894</v>
+      </c>
+      <c r="U4">
+        <v>0.99529938491051695</v>
+      </c>
+      <c r="V4">
+        <v>0.97093158129433299</v>
+      </c>
+      <c r="W4">
+        <v>0.98602752922507797</v>
+      </c>
+      <c r="X4">
+        <v>0.99847398516482</v>
+      </c>
+      <c r="Y4">
+        <v>0.98619724492420002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5">
+        <v>0.94436851238387598</v>
+      </c>
+      <c r="C5">
+        <v>0.92443601062617498</v>
+      </c>
+      <c r="D5">
+        <v>0.985687298155143</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.98005909562299798</v>
+      </c>
+      <c r="G5">
+        <v>0.99106549134528898</v>
+      </c>
+      <c r="H5">
+        <v>0.96581301750550697</v>
+      </c>
+      <c r="I5">
+        <v>0.87554451077952</v>
+      </c>
+      <c r="J5">
+        <v>0.99366645568854295</v>
+      </c>
+      <c r="K5">
+        <v>0.98304197166193097</v>
+      </c>
+      <c r="L5">
+        <v>0.91095563200359098</v>
+      </c>
+      <c r="M5">
+        <v>0.96322540142301005</v>
+      </c>
+      <c r="N5">
+        <v>0.951874282034889</v>
+      </c>
+      <c r="O5">
+        <v>0.98877417335859796</v>
+      </c>
+      <c r="P5">
+        <v>0.98902585685529698</v>
+      </c>
+      <c r="Q5">
+        <v>0.93652227513680797</v>
+      </c>
+      <c r="R5">
+        <v>0.94354024545951798</v>
+      </c>
+      <c r="S5">
+        <v>0.96501261979801101</v>
+      </c>
+      <c r="T5">
+        <v>0.94196624105117399</v>
+      </c>
+      <c r="U5">
+        <v>0.99248225000401702</v>
+      </c>
+      <c r="V5">
+        <v>0.94751439812678195</v>
+      </c>
+      <c r="W5">
+        <v>0.98006246077810699</v>
+      </c>
+      <c r="X5">
+        <v>0.97985529496021995</v>
+      </c>
+      <c r="Y5">
+        <v>0.951950412540575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6">
+        <v>0.97172222848738399</v>
+      </c>
+      <c r="C6">
+        <v>0.97810491285879297</v>
+      </c>
+      <c r="D6">
+        <v>0.99786403813934799</v>
+      </c>
+      <c r="E6">
+        <v>0.98005909562299798</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.97477198689991895</v>
+      </c>
+      <c r="H6">
+        <v>0.97577451319091502</v>
+      </c>
+      <c r="I6">
+        <v>0.95000011118850103</v>
+      </c>
+      <c r="J6">
+        <v>0.99437141577307797</v>
+      </c>
+      <c r="K6">
+        <v>0.99882181537681702</v>
+      </c>
+      <c r="L6">
+        <v>0.94684079174814995</v>
+      </c>
+      <c r="M6">
+        <v>0.98633150250187696</v>
+      </c>
+      <c r="N6">
+        <v>0.99143365146021201</v>
+      </c>
+      <c r="O6">
+        <v>0.996953975822229</v>
+      </c>
+      <c r="P6">
+        <v>0.99480516548662501</v>
+      </c>
+      <c r="Q6">
+        <v>0.98527151342700003</v>
+      </c>
+      <c r="R6">
+        <v>0.97664019626340604</v>
+      </c>
+      <c r="S6">
+        <v>0.99715230942431099</v>
+      </c>
+      <c r="T6">
+        <v>0.98795927442668197</v>
+      </c>
+      <c r="U6">
+        <v>0.99500695234616199</v>
+      </c>
+      <c r="V6">
+        <v>0.95888832827347903</v>
+      </c>
+      <c r="W6">
+        <v>0.97668911848737505</v>
+      </c>
+      <c r="X6">
+        <v>0.99837771162187094</v>
+      </c>
+      <c r="Y6">
+        <v>0.99277791676374905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>0.93002639418725197</v>
+      </c>
+      <c r="C7">
+        <v>0.911965938641214</v>
+      </c>
+      <c r="D7">
+        <v>0.97647948523775197</v>
+      </c>
+      <c r="E7">
+        <v>0.99106549134528898</v>
+      </c>
+      <c r="F7">
+        <v>0.97477198689991895</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.96681317226882202</v>
+      </c>
+      <c r="I7">
+        <v>0.87350074360010099</v>
+      </c>
+      <c r="J7">
+        <v>0.98192715517640405</v>
+      </c>
+      <c r="K7">
+        <v>0.97636107776953895</v>
+      </c>
+      <c r="L7">
+        <v>0.92221762842995503</v>
+      </c>
+      <c r="M7">
+        <v>0.95814100905551502</v>
+      </c>
+      <c r="N7">
+        <v>0.93886904332227294</v>
+      </c>
+      <c r="O7">
+        <v>0.98174824889865897</v>
+      </c>
+      <c r="P7">
+        <v>0.978681061409302</v>
+      </c>
+      <c r="Q7">
+        <v>0.92439763516959605</v>
+      </c>
+      <c r="R7">
+        <v>0.93738838297454596</v>
+      </c>
+      <c r="S7">
+        <v>0.961304546391193</v>
+      </c>
+      <c r="T7">
+        <v>0.92948973134366897</v>
+      </c>
+      <c r="U7">
+        <v>0.98760300291349601</v>
+      </c>
+      <c r="V7">
+        <v>0.91393673391171404</v>
+      </c>
+      <c r="W7">
+        <v>0.95666280547746896</v>
+      </c>
+      <c r="X7">
+        <v>0.97267218460808003</v>
+      </c>
+      <c r="Y7">
+        <v>0.94659204778114303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0.90632770493473302</v>
+      </c>
+      <c r="C8">
+        <v>0.94494271051788803</v>
+      </c>
+      <c r="D8">
+        <v>0.97370439123992403</v>
+      </c>
+      <c r="E8">
+        <v>0.96581301750550697</v>
+      </c>
+      <c r="F8">
+        <v>0.97577451319091502</v>
+      </c>
+      <c r="G8">
+        <v>0.96681317226882202</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.902104617334193</v>
+      </c>
+      <c r="J8">
+        <v>0.96975737969772502</v>
+      </c>
+      <c r="K8">
+        <v>0.979617753869789</v>
+      </c>
+      <c r="L8">
+        <v>0.89993517651267596</v>
+      </c>
+      <c r="M8">
+        <v>0.959060234815162</v>
+      </c>
+      <c r="N8">
+        <v>0.95642298069596499</v>
+      </c>
+      <c r="O8">
+        <v>0.97949978852939601</v>
+      </c>
+      <c r="P8">
+        <v>0.96905780799013197</v>
+      </c>
+      <c r="Q8">
+        <v>0.94993536527502498</v>
+      </c>
+      <c r="R8">
+        <v>0.94779912302945402</v>
+      </c>
+      <c r="S8">
+        <v>0.97197865518126703</v>
+      </c>
+      <c r="T8">
+        <v>0.95370443172639896</v>
+      </c>
+      <c r="U8">
+        <v>0.98055859493972797</v>
+      </c>
+      <c r="V8">
+        <v>0.91704616945901596</v>
+      </c>
+      <c r="W8">
+        <v>0.94418686340410796</v>
+      </c>
+      <c r="X8">
+        <v>0.97285118607280796</v>
+      </c>
+      <c r="Y8">
+        <v>0.95670115933017597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9">
+        <v>0.93291956367292606</v>
+      </c>
+      <c r="C9">
+        <v>0.98381551787572297</v>
+      </c>
+      <c r="D9">
+        <v>0.93379293450787904</v>
+      </c>
+      <c r="E9">
+        <v>0.87554451077952</v>
+      </c>
+      <c r="F9">
+        <v>0.95000011118850103</v>
+      </c>
+      <c r="G9">
+        <v>0.87350074360010099</v>
+      </c>
+      <c r="H9">
+        <v>0.902104617334193</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.91861383758040205</v>
+      </c>
+      <c r="K9">
+        <v>0.93898560610217396</v>
+      </c>
+      <c r="L9">
+        <v>0.95810880812863697</v>
+      </c>
+      <c r="M9">
+        <v>0.952094248649625</v>
+      </c>
+      <c r="N9">
+        <v>0.97185176279285401</v>
+      </c>
+      <c r="O9">
+        <v>0.92918452108164795</v>
+      </c>
+      <c r="P9">
+        <v>0.92689942141158499</v>
+      </c>
+      <c r="Q9">
+        <v>0.98212649868905399</v>
+      </c>
+      <c r="R9">
+        <v>0.961999877426155</v>
+      </c>
+      <c r="S9">
+        <v>0.96700880170241599</v>
+      </c>
+      <c r="T9">
+        <v>0.97898565600088505</v>
+      </c>
+      <c r="U9">
+        <v>0.92066262130657295</v>
+      </c>
+      <c r="V9">
+        <v>0.89157924815608103</v>
+      </c>
+      <c r="W9">
+        <v>0.89436404326123198</v>
+      </c>
+      <c r="X9">
+        <v>0.94622346949006497</v>
+      </c>
+      <c r="Y9">
+        <v>0.97739681075449503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10">
+        <v>0.96640505194158999</v>
+      </c>
+      <c r="C10">
+        <v>0.95700290451898296</v>
+      </c>
+      <c r="D10">
+        <v>0.99731582364204197</v>
+      </c>
+      <c r="E10">
+        <v>0.99366645568854295</v>
+      </c>
+      <c r="F10">
+        <v>0.99437141577307797</v>
+      </c>
+      <c r="G10">
+        <v>0.98192715517640405</v>
+      </c>
+      <c r="H10">
+        <v>0.96975737969772502</v>
+      </c>
+      <c r="I10">
+        <v>0.91861383758040205</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.99574370758381803</v>
+      </c>
+      <c r="L10">
+        <v>0.92841278675522299</v>
+      </c>
+      <c r="M10">
+        <v>0.98193577515973796</v>
+      </c>
+      <c r="N10">
+        <v>0.97815202458898798</v>
+      </c>
+      <c r="O10">
+        <v>0.99782636234954603</v>
+      </c>
+      <c r="P10">
+        <v>0.99839821368282999</v>
+      </c>
+      <c r="Q10">
+        <v>0.96733024034585602</v>
+      </c>
+      <c r="R10">
+        <v>0.96805265800919005</v>
+      </c>
+      <c r="S10">
+        <v>0.98509571142524399</v>
+      </c>
+      <c r="T10">
+        <v>0.97169509934791798</v>
+      </c>
+      <c r="U10">
+        <v>0.99722117182762005</v>
+      </c>
+      <c r="V10">
+        <v>0.96823606911550997</v>
+      </c>
+      <c r="W10">
+        <v>0.98963864867647</v>
+      </c>
+      <c r="X10">
+        <v>0.99504414062277802</v>
+      </c>
+      <c r="Y10">
+        <v>0.97752732093985495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>0.96684223265992997</v>
+      </c>
+      <c r="C11">
+        <v>0.97147757356100495</v>
+      </c>
+      <c r="D11">
+        <v>0.99914384653504096</v>
+      </c>
+      <c r="E11">
+        <v>0.98304197166193097</v>
+      </c>
+      <c r="F11">
+        <v>0.99882181537681702</v>
+      </c>
+      <c r="G11">
+        <v>0.97636107776953895</v>
+      </c>
+      <c r="H11">
+        <v>0.979617753869789</v>
+      </c>
+      <c r="I11">
+        <v>0.93898560610217396</v>
+      </c>
+      <c r="J11">
+        <v>0.99574370758381803</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.93245159338369099</v>
+      </c>
+      <c r="M11">
+        <v>0.98666700717737399</v>
+      </c>
+      <c r="N11">
+        <v>0.98745172992812702</v>
+      </c>
+      <c r="O11">
+        <v>0.99872746787828404</v>
+      </c>
+      <c r="P11">
+        <v>0.99624436678519002</v>
+      </c>
+      <c r="Q11">
+        <v>0.98002764365921602</v>
+      </c>
+      <c r="R11">
+        <v>0.97602657336265797</v>
+      </c>
+      <c r="S11">
+        <v>0.99461222089496104</v>
+      </c>
+      <c r="T11">
+        <v>0.98370745005970195</v>
+      </c>
+      <c r="U11">
+        <v>0.996250424926446</v>
+      </c>
+      <c r="V11">
+        <v>0.96518752060903901</v>
+      </c>
+      <c r="W11">
+        <v>0.98171321225979802</v>
+      </c>
+      <c r="X11">
+        <v>0.99900471598199403</v>
+      </c>
+      <c r="Y11">
+        <v>0.98826387055365705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>0.92685658187487496</v>
+      </c>
+      <c r="C12">
+        <v>0.94859985943094904</v>
+      </c>
+      <c r="D12">
+        <v>0.92919959417754805</v>
+      </c>
+      <c r="E12">
+        <v>0.91095563200359098</v>
+      </c>
+      <c r="F12">
+        <v>0.94684079174814995</v>
+      </c>
+      <c r="G12">
+        <v>0.92221762842995503</v>
+      </c>
+      <c r="H12">
+        <v>0.89993517651267596</v>
+      </c>
+      <c r="I12">
+        <v>0.95810880812863697</v>
+      </c>
+      <c r="J12">
+        <v>0.92841278675522299</v>
+      </c>
+      <c r="K12">
+        <v>0.93245159338369099</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.94334137437718102</v>
+      </c>
+      <c r="N12">
+        <v>0.94530186838189101</v>
+      </c>
+      <c r="O12">
+        <v>0.93183716031994901</v>
+      </c>
+      <c r="P12">
+        <v>0.93327422333215204</v>
+      </c>
+      <c r="Q12">
+        <v>0.94868910961369002</v>
+      </c>
+      <c r="R12">
+        <v>0.94241955422421997</v>
+      </c>
+      <c r="S12">
+        <v>0.95317189369128497</v>
+      </c>
+      <c r="T12">
+        <v>0.94542185610345697</v>
+      </c>
+      <c r="U12">
+        <v>0.93665125041382102</v>
+      </c>
+      <c r="V12">
+        <v>0.84446750539972604</v>
+      </c>
+      <c r="W12">
+        <v>0.88271990863135497</v>
+      </c>
+      <c r="X12">
+        <v>0.93721112842535803</v>
+      </c>
+      <c r="Y12">
+        <v>0.959570979822296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <v>0.94443682246869898</v>
+      </c>
+      <c r="C13">
+        <v>0.96212261099043705</v>
+      </c>
+      <c r="D13">
+        <v>0.98408565157709904</v>
+      </c>
+      <c r="E13">
+        <v>0.96322540142301005</v>
+      </c>
+      <c r="F13">
+        <v>0.98633150250187696</v>
+      </c>
+      <c r="G13">
+        <v>0.95814100905551502</v>
+      </c>
+      <c r="H13">
+        <v>0.959060234815162</v>
+      </c>
+      <c r="I13">
+        <v>0.952094248649625</v>
+      </c>
+      <c r="J13">
+        <v>0.98193577515973796</v>
+      </c>
+      <c r="K13">
+        <v>0.98666700717737399</v>
+      </c>
+      <c r="L13">
+        <v>0.94334137437718102</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.974580287867439</v>
+      </c>
+      <c r="O13">
+        <v>0.98843764105206799</v>
+      </c>
+      <c r="P13">
+        <v>0.98871998350186996</v>
+      </c>
+      <c r="Q13">
+        <v>0.97200748681233895</v>
+      </c>
+      <c r="R13">
+        <v>0.99739079685337995</v>
+      </c>
+      <c r="S13">
+        <v>0.986067963286268</v>
+      </c>
+      <c r="T13">
+        <v>0.97535490315076701</v>
+      </c>
+      <c r="U13">
+        <v>0.98359924478190197</v>
+      </c>
+      <c r="V13">
+        <v>0.95268567058195297</v>
+      </c>
+      <c r="W13">
+        <v>0.97266078823222302</v>
+      </c>
+      <c r="X13">
+        <v>0.99170685032138195</v>
+      </c>
+      <c r="Y13">
+        <v>0.98207348598413802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14">
+        <v>0.97841394657008995</v>
+      </c>
+      <c r="C14">
+        <v>0.99551022900584196</v>
+      </c>
+      <c r="D14">
+        <v>0.98637385504458996</v>
+      </c>
+      <c r="E14">
+        <v>0.951874282034889</v>
+      </c>
+      <c r="F14">
+        <v>0.99143365146021201</v>
+      </c>
+      <c r="G14">
+        <v>0.93886904332227294</v>
+      </c>
+      <c r="H14">
+        <v>0.95642298069596499</v>
+      </c>
+      <c r="I14">
+        <v>0.97185176279285401</v>
+      </c>
+      <c r="J14">
+        <v>0.97815202458898798</v>
+      </c>
+      <c r="K14">
+        <v>0.98745172992812702</v>
+      </c>
+      <c r="L14">
+        <v>0.94530186838189101</v>
+      </c>
+      <c r="M14">
+        <v>0.974580287867439</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.98096617472741598</v>
+      </c>
+      <c r="P14">
+        <v>0.97965887567343402</v>
+      </c>
+      <c r="Q14">
+        <v>0.99844555801054602</v>
+      </c>
+      <c r="R14">
+        <v>0.97035290828359699</v>
+      </c>
+      <c r="S14">
+        <v>0.994571877714862</v>
+      </c>
+      <c r="T14">
+        <v>0.99912008254043305</v>
+      </c>
+      <c r="U14">
+        <v>0.97603154389851299</v>
+      </c>
+      <c r="V14">
+        <v>0.95708739072747695</v>
+      </c>
+      <c r="W14">
+        <v>0.96123856964451504</v>
+      </c>
+      <c r="X14">
+        <v>0.98804017004848199</v>
+      </c>
+      <c r="Y14">
+        <v>0.99726948853805697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>0.96069140876195602</v>
+      </c>
+      <c r="C15">
+        <v>0.96274625336475705</v>
+      </c>
+      <c r="D15">
+        <v>0.99791312538803101</v>
+      </c>
+      <c r="E15">
+        <v>0.98877417335859796</v>
+      </c>
+      <c r="F15">
+        <v>0.996953975822229</v>
+      </c>
+      <c r="G15">
+        <v>0.98174824889865897</v>
+      </c>
+      <c r="H15">
+        <v>0.97949978852939601</v>
+      </c>
+      <c r="I15">
+        <v>0.92918452108164795</v>
+      </c>
+      <c r="J15">
+        <v>0.99782636234954603</v>
+      </c>
+      <c r="K15">
+        <v>0.99872746787828404</v>
+      </c>
+      <c r="L15">
+        <v>0.93183716031994901</v>
+      </c>
+      <c r="M15">
+        <v>0.98843764105206799</v>
+      </c>
+      <c r="N15">
+        <v>0.98096617472741598</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.99859157755229699</v>
+      </c>
+      <c r="Q15">
+        <v>0.972357212721356</v>
+      </c>
+      <c r="R15">
+        <v>0.97673186868491102</v>
+      </c>
+      <c r="S15">
+        <v>0.99021451946752104</v>
+      </c>
+      <c r="T15">
+        <v>0.97658361917833902</v>
+      </c>
+      <c r="U15">
+        <v>0.99867718871136801</v>
+      </c>
+      <c r="V15">
+        <v>0.96307411690431</v>
+      </c>
+      <c r="W15">
+        <v>0.98463225339095695</v>
+      </c>
+      <c r="X15">
+        <v>0.99796962294904901</v>
+      </c>
+      <c r="Y15">
+        <v>0.98258286706056697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>0.96650263624297506</v>
+      </c>
+      <c r="C16">
+        <v>0.96019793509141205</v>
+      </c>
+      <c r="D16">
+        <v>0.99635669476907696</v>
+      </c>
+      <c r="E16">
+        <v>0.98902585685529698</v>
+      </c>
+      <c r="F16">
+        <v>0.99480516548662501</v>
+      </c>
+      <c r="G16">
+        <v>0.978681061409302</v>
+      </c>
+      <c r="H16">
+        <v>0.96905780799013197</v>
+      </c>
+      <c r="I16">
+        <v>0.92689942141158499</v>
+      </c>
+      <c r="J16">
+        <v>0.99839821368282999</v>
+      </c>
+      <c r="K16">
+        <v>0.99624436678519002</v>
+      </c>
+      <c r="L16">
+        <v>0.93327422333215204</v>
+      </c>
+      <c r="M16">
+        <v>0.98871998350186996</v>
+      </c>
+      <c r="N16">
+        <v>0.97965887567343402</v>
+      </c>
+      <c r="O16">
+        <v>0.99859157755229699</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.97047582162810997</v>
+      </c>
+      <c r="R16">
+        <v>0.97672464936847903</v>
+      </c>
+      <c r="S16">
+        <v>0.98653927194080404</v>
+      </c>
+      <c r="T16">
+        <v>0.97481689287282303</v>
+      </c>
+      <c r="U16">
+        <v>0.99745438785666896</v>
+      </c>
+      <c r="V16">
+        <v>0.96629752599091301</v>
+      </c>
+      <c r="W16">
+        <v>0.98744333123407302</v>
+      </c>
+      <c r="X16">
+        <v>0.99653030393952502</v>
+      </c>
+      <c r="Y16">
+        <v>0.98127447873039597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17">
+        <v>0.97037718432887698</v>
+      </c>
+      <c r="C17">
+        <v>0.998791766627248</v>
+      </c>
+      <c r="D17">
+        <v>0.97772110954215696</v>
+      </c>
+      <c r="E17">
+        <v>0.93652227513680797</v>
+      </c>
+      <c r="F17">
+        <v>0.98527151342700003</v>
+      </c>
+      <c r="G17">
+        <v>0.92439763516959605</v>
+      </c>
+      <c r="H17">
+        <v>0.94993536527502498</v>
+      </c>
+      <c r="I17">
+        <v>0.98212649868905399</v>
+      </c>
+      <c r="J17">
+        <v>0.96733024034585602</v>
+      </c>
+      <c r="K17">
+        <v>0.98002764365921602</v>
+      </c>
+      <c r="L17">
+        <v>0.94868910961369002</v>
+      </c>
+      <c r="M17">
+        <v>0.97200748681233895</v>
+      </c>
+      <c r="N17">
+        <v>0.99844555801054602</v>
+      </c>
+      <c r="O17">
+        <v>0.972357212721356</v>
+      </c>
+      <c r="P17">
+        <v>0.97047582162810997</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.97148358609214702</v>
+      </c>
+      <c r="S17">
+        <v>0.99212077101912999</v>
+      </c>
+      <c r="T17">
+        <v>0.99971706206561795</v>
+      </c>
+      <c r="U17">
+        <v>0.96647757390581102</v>
+      </c>
+      <c r="V17">
+        <v>0.94622465319587101</v>
+      </c>
+      <c r="W17">
+        <v>0.94851181813614605</v>
+      </c>
+      <c r="X17">
+        <v>0.98161634309732904</v>
+      </c>
+      <c r="Y17">
+        <v>0.99667484986619803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>0.93156416522072805</v>
+      </c>
+      <c r="C18">
+        <v>0.96300380808300401</v>
+      </c>
+      <c r="D18">
+        <v>0.97252717426631596</v>
+      </c>
+      <c r="E18">
+        <v>0.94354024545951798</v>
+      </c>
+      <c r="F18">
+        <v>0.97664019626340604</v>
+      </c>
+      <c r="G18">
+        <v>0.93738838297454596</v>
+      </c>
+      <c r="H18">
+        <v>0.94779912302945402</v>
+      </c>
+      <c r="I18">
+        <v>0.961999877426155</v>
+      </c>
+      <c r="J18">
+        <v>0.96805265800919005</v>
+      </c>
+      <c r="K18">
+        <v>0.97602657336265797</v>
+      </c>
+      <c r="L18">
+        <v>0.94241955422421997</v>
+      </c>
+      <c r="M18">
+        <v>0.99739079685337995</v>
+      </c>
+      <c r="N18">
+        <v>0.97035290828359699</v>
+      </c>
+      <c r="O18">
+        <v>0.97673186868491102</v>
+      </c>
+      <c r="P18">
+        <v>0.97672464936847903</v>
+      </c>
+      <c r="Q18">
+        <v>0.97148358609214702</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.98097380397143497</v>
+      </c>
+      <c r="T18">
+        <v>0.97391112632772003</v>
+      </c>
+      <c r="U18">
+        <v>0.96992434086745605</v>
+      </c>
+      <c r="V18">
+        <v>0.943506842324765</v>
+      </c>
+      <c r="W18">
+        <v>0.95991478580393297</v>
+      </c>
+      <c r="X18">
+        <v>0.98303438904901097</v>
+      </c>
+      <c r="Y18">
+        <v>0.97862429306043597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>0.96725307668448102</v>
+      </c>
+      <c r="C19">
+        <v>0.98680706969288201</v>
+      </c>
+      <c r="D19">
+        <v>0.99284944182875701</v>
+      </c>
+      <c r="E19">
+        <v>0.96501261979801101</v>
+      </c>
+      <c r="F19">
+        <v>0.99715230942431099</v>
+      </c>
+      <c r="G19">
+        <v>0.961304546391193</v>
+      </c>
+      <c r="H19">
+        <v>0.97197865518126703</v>
+      </c>
+      <c r="I19">
+        <v>0.96700880170241599</v>
+      </c>
+      <c r="J19">
+        <v>0.98509571142524399</v>
+      </c>
+      <c r="K19">
+        <v>0.99461222089496104</v>
+      </c>
+      <c r="L19">
+        <v>0.95317189369128497</v>
+      </c>
+      <c r="M19">
+        <v>0.986067963286268</v>
+      </c>
+      <c r="N19">
+        <v>0.994571877714862</v>
+      </c>
+      <c r="O19">
+        <v>0.99021451946752104</v>
+      </c>
+      <c r="P19">
+        <v>0.98653927194080404</v>
+      </c>
+      <c r="Q19">
+        <v>0.99212077101912999</v>
+      </c>
+      <c r="R19">
+        <v>0.98097380397143497</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.99358300279825795</v>
+      </c>
+      <c r="U19">
+        <v>0.986632183298636</v>
+      </c>
+      <c r="V19">
+        <v>0.95177529275084005</v>
+      </c>
+      <c r="W19">
+        <v>0.96542704496688903</v>
+      </c>
+      <c r="X19">
+        <v>0.99531993673431696</v>
+      </c>
+      <c r="Y19">
+        <v>0.99704180329648995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>0.97201454694776201</v>
+      </c>
+      <c r="C20">
+        <v>0.99753599143876304</v>
+      </c>
+      <c r="D20">
+        <v>0.98156944246589894</v>
+      </c>
+      <c r="E20">
+        <v>0.94196624105117399</v>
+      </c>
+      <c r="F20">
+        <v>0.98795927442668197</v>
+      </c>
+      <c r="G20">
+        <v>0.92948973134366897</v>
+      </c>
+      <c r="H20">
+        <v>0.95370443172639896</v>
+      </c>
+      <c r="I20">
+        <v>0.97898565600088505</v>
+      </c>
+      <c r="J20">
+        <v>0.97169509934791798</v>
+      </c>
+      <c r="K20">
+        <v>0.98370745005970195</v>
+      </c>
+      <c r="L20">
+        <v>0.94542185610345697</v>
+      </c>
+      <c r="M20">
+        <v>0.97535490315076701</v>
+      </c>
+      <c r="N20">
+        <v>0.99912008254043305</v>
+      </c>
+      <c r="O20">
+        <v>0.97658361917833902</v>
+      </c>
+      <c r="P20">
+        <v>0.97481689287282303</v>
+      </c>
+      <c r="Q20">
+        <v>0.99971706206561795</v>
+      </c>
+      <c r="R20">
+        <v>0.97391112632772003</v>
+      </c>
+      <c r="S20">
+        <v>0.99358300279825795</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.97053584148531002</v>
+      </c>
+      <c r="V20">
+        <v>0.95240035658460298</v>
+      </c>
+      <c r="W20">
+        <v>0.95480446667176599</v>
+      </c>
+      <c r="X20">
+        <v>0.98516958860105297</v>
+      </c>
+      <c r="Y20">
+        <v>0.99724229942355103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>0.958015666210837</v>
+      </c>
+      <c r="C21">
+        <v>0.95736226363291499</v>
+      </c>
+      <c r="D21">
+        <v>0.99529938491051695</v>
+      </c>
+      <c r="E21">
+        <v>0.99248225000401702</v>
+      </c>
+      <c r="F21">
+        <v>0.99500695234616199</v>
+      </c>
+      <c r="G21">
+        <v>0.98760300291349601</v>
+      </c>
+      <c r="H21">
+        <v>0.98055859493972797</v>
+      </c>
+      <c r="I21">
+        <v>0.92066262130657295</v>
+      </c>
+      <c r="J21">
+        <v>0.99722117182762005</v>
+      </c>
+      <c r="K21">
+        <v>0.996250424926446</v>
+      </c>
+      <c r="L21">
+        <v>0.93665125041382102</v>
+      </c>
+      <c r="M21">
+        <v>0.98359924478190197</v>
+      </c>
+      <c r="N21">
+        <v>0.97603154389851299</v>
+      </c>
+      <c r="O21">
+        <v>0.99867718871136801</v>
+      </c>
+      <c r="P21">
+        <v>0.99745438785666896</v>
+      </c>
+      <c r="Q21">
+        <v>0.96647757390581102</v>
+      </c>
+      <c r="R21">
+        <v>0.96992434086745605</v>
+      </c>
+      <c r="S21">
+        <v>0.986632183298636</v>
+      </c>
+      <c r="T21">
+        <v>0.97053584148531002</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.95149776336312497</v>
+      </c>
+      <c r="W21">
+        <v>0.97866441044112296</v>
+      </c>
+      <c r="X21">
+        <v>0.99426002744595099</v>
+      </c>
+      <c r="Y21">
+        <v>0.97859264946368796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22">
+        <v>0.95014404139126896</v>
+      </c>
+      <c r="C22">
+        <v>0.93256869492826999</v>
+      </c>
+      <c r="D22">
+        <v>0.97093158129433299</v>
+      </c>
+      <c r="E22">
+        <v>0.94751439812678195</v>
+      </c>
+      <c r="F22">
+        <v>0.95888832827347903</v>
+      </c>
+      <c r="G22">
+        <v>0.91393673391171404</v>
+      </c>
+      <c r="H22">
+        <v>0.91704616945901596</v>
+      </c>
+      <c r="I22">
+        <v>0.89157924815608103</v>
+      </c>
+      <c r="J22">
+        <v>0.96823606911550997</v>
+      </c>
+      <c r="K22">
+        <v>0.96518752060903901</v>
+      </c>
+      <c r="L22">
+        <v>0.84446750539972604</v>
+      </c>
+      <c r="M22">
+        <v>0.95268567058195297</v>
+      </c>
+      <c r="N22">
+        <v>0.95708739072747695</v>
+      </c>
+      <c r="O22">
+        <v>0.96307411690431</v>
+      </c>
+      <c r="P22">
+        <v>0.96629752599091301</v>
+      </c>
+      <c r="Q22">
+        <v>0.94622465319587101</v>
+      </c>
+      <c r="R22">
+        <v>0.943506842324765</v>
+      </c>
+      <c r="S22">
+        <v>0.95177529275084005</v>
+      </c>
+      <c r="T22">
+        <v>0.95240035658460298</v>
+      </c>
+      <c r="U22">
+        <v>0.95149776336312497</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0.989748018257815</v>
+      </c>
+      <c r="X22">
+        <v>0.96827928950945297</v>
+      </c>
+      <c r="Y22">
+        <v>0.94654410750914797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23">
+        <v>0.95189698279398705</v>
+      </c>
+      <c r="C23">
+        <v>0.93417799564265303</v>
+      </c>
+      <c r="D23">
+        <v>0.98602752922507797</v>
+      </c>
+      <c r="E23">
+        <v>0.98006246077810699</v>
+      </c>
+      <c r="F23">
+        <v>0.97668911848737505</v>
+      </c>
+      <c r="G23">
+        <v>0.95666280547746896</v>
+      </c>
+      <c r="H23">
+        <v>0.94418686340410796</v>
+      </c>
+      <c r="I23">
+        <v>0.89436404326123198</v>
+      </c>
+      <c r="J23">
+        <v>0.98963864867647</v>
+      </c>
+      <c r="K23">
+        <v>0.98171321225979802</v>
+      </c>
+      <c r="L23">
+        <v>0.88271990863135497</v>
+      </c>
+      <c r="M23">
+        <v>0.97266078823222302</v>
+      </c>
+      <c r="N23">
+        <v>0.96123856964451504</v>
+      </c>
+      <c r="O23">
+        <v>0.98463225339095695</v>
+      </c>
+      <c r="P23">
+        <v>0.98744333123407302</v>
+      </c>
+      <c r="Q23">
+        <v>0.94851181813614605</v>
+      </c>
+      <c r="R23">
+        <v>0.95991478580393297</v>
+      </c>
+      <c r="S23">
+        <v>0.96542704496688903</v>
+      </c>
+      <c r="T23">
+        <v>0.95480446667176599</v>
+      </c>
+      <c r="U23">
+        <v>0.97866441044112296</v>
+      </c>
+      <c r="V23">
+        <v>0.989748018257815</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0.98387286130223395</v>
+      </c>
+      <c r="Y23">
+        <v>0.95616241784913802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24">
+        <v>0.96764320562158301</v>
+      </c>
+      <c r="C24">
+        <v>0.97241720306117396</v>
+      </c>
+      <c r="D24">
+        <v>0.99847398516482</v>
+      </c>
+      <c r="E24">
+        <v>0.97985529496021995</v>
+      </c>
+      <c r="F24">
+        <v>0.99837771162187094</v>
+      </c>
+      <c r="G24">
+        <v>0.97267218460808003</v>
+      </c>
+      <c r="H24">
+        <v>0.97285118607280796</v>
+      </c>
+      <c r="I24">
+        <v>0.94622346949006497</v>
+      </c>
+      <c r="J24">
+        <v>0.99504414062277802</v>
+      </c>
+      <c r="K24">
+        <v>0.99900471598199403</v>
+      </c>
+      <c r="L24">
+        <v>0.93721112842535803</v>
+      </c>
+      <c r="M24">
+        <v>0.99170685032138195</v>
+      </c>
+      <c r="N24">
+        <v>0.98804017004848199</v>
+      </c>
+      <c r="O24">
+        <v>0.99796962294904901</v>
+      </c>
+      <c r="P24">
+        <v>0.99653030393952502</v>
+      </c>
+      <c r="Q24">
+        <v>0.98161634309732904</v>
+      </c>
+      <c r="R24">
+        <v>0.98303438904901097</v>
+      </c>
+      <c r="S24">
+        <v>0.99531993673431696</v>
+      </c>
+      <c r="T24">
+        <v>0.98516958860105297</v>
+      </c>
+      <c r="U24">
+        <v>0.99426002744595099</v>
+      </c>
+      <c r="V24">
+        <v>0.96827928950945297</v>
+      </c>
+      <c r="W24">
+        <v>0.98387286130223395</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.98997335166023903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>0.97630849708060397</v>
+      </c>
+      <c r="C25">
+        <v>0.99282404406788605</v>
+      </c>
+      <c r="D25">
+        <v>0.98619724492420002</v>
+      </c>
+      <c r="E25">
+        <v>0.951950412540575</v>
+      </c>
+      <c r="F25">
+        <v>0.99277791676374905</v>
+      </c>
+      <c r="G25">
+        <v>0.94659204778114303</v>
+      </c>
+      <c r="H25">
+        <v>0.95670115933017597</v>
+      </c>
+      <c r="I25">
+        <v>0.97739681075449503</v>
+      </c>
+      <c r="J25">
+        <v>0.97752732093985495</v>
+      </c>
+      <c r="K25">
+        <v>0.98826387055365705</v>
+      </c>
+      <c r="L25">
+        <v>0.959570979822296</v>
+      </c>
+      <c r="M25">
+        <v>0.98207348598413802</v>
+      </c>
+      <c r="N25">
+        <v>0.99726948853805697</v>
+      </c>
+      <c r="O25">
+        <v>0.98258286706056697</v>
+      </c>
+      <c r="P25">
+        <v>0.98127447873039597</v>
+      </c>
+      <c r="Q25">
+        <v>0.99667484986619803</v>
+      </c>
+      <c r="R25">
+        <v>0.97862429306043597</v>
+      </c>
+      <c r="S25">
+        <v>0.99704180329648995</v>
+      </c>
+      <c r="T25">
+        <v>0.99724229942355103</v>
+      </c>
+      <c r="U25">
+        <v>0.97859264946368796</v>
+      </c>
+      <c r="V25">
+        <v>0.94654410750914797</v>
+      </c>
+      <c r="W25">
+        <v>0.95616241784913802</v>
+      </c>
+      <c r="X25">
+        <v>0.98997335166023903</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B4:B25)</f>
+        <v>0.95507530597858126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27">
+        <f>_xlfn.T.TEST(B28:B33,B4:B25,2,3)</f>
+        <v>5.5603157730311881E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>0.96345237443440002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.96345237443440002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.96345237443440002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.96345237443440002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.96345237443440002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.96345237443440002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A89746A-807B-2845-923B-7D93ACD6A5D6}">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>141</v>
+      </c>
+      <c r="V1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.92363449451184798</v>
+      </c>
+      <c r="D2">
+        <v>0.96725712001331099</v>
+      </c>
+      <c r="E2">
+        <v>0.94921039152962206</v>
+      </c>
+      <c r="F2">
+        <v>0.96846451383691001</v>
+      </c>
+      <c r="G2">
+        <v>0.93652433222378895</v>
+      </c>
+      <c r="H2">
+        <v>0.89558480319035005</v>
+      </c>
+      <c r="I2">
+        <v>0.88728326204894503</v>
+      </c>
+      <c r="J2">
+        <v>0.96720175186078094</v>
+      </c>
+      <c r="K2">
+        <v>0.96816170900898102</v>
+      </c>
+      <c r="L2">
+        <v>0.895397575810569</v>
+      </c>
+      <c r="M2">
+        <v>0.927178794541477</v>
+      </c>
+      <c r="N2">
+        <v>0.96287950799642197</v>
+      </c>
+      <c r="O2">
+        <v>0.96259179807754203</v>
+      </c>
+      <c r="P2">
+        <v>0.95469641244199499</v>
+      </c>
+      <c r="Q2">
+        <v>0.953700823160613</v>
+      </c>
+      <c r="R2">
+        <v>0.90801639639600995</v>
+      </c>
+      <c r="S2">
+        <v>0.95329766532426696</v>
+      </c>
+      <c r="T2">
+        <v>0.95821458927554304</v>
+      </c>
+      <c r="U2">
+        <v>0.93073629234779498</v>
+      </c>
+      <c r="V2">
+        <v>0.93544268072518999</v>
+      </c>
+      <c r="W2">
+        <v>0.97089955620977098</v>
+      </c>
+      <c r="X2">
+        <v>0.96718936751430196</v>
+      </c>
+      <c r="Y2">
+        <v>0.95759113097848603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3">
+        <v>0.92363449451184798</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.97812714608414397</v>
+      </c>
+      <c r="E3">
+        <v>0.94387872719244403</v>
+      </c>
+      <c r="F3">
+        <v>0.97809553935409799</v>
+      </c>
+      <c r="G3">
+        <v>0.92019313460045205</v>
+      </c>
+      <c r="H3">
+        <v>0.97649613863337703</v>
+      </c>
+      <c r="I3">
+        <v>0.93551395706342699</v>
+      </c>
+      <c r="J3">
+        <v>0.96885063767628998</v>
+      </c>
+      <c r="K3">
+        <v>0.97987967188473302</v>
+      </c>
+      <c r="L3">
+        <v>0.89068472782542396</v>
+      </c>
+      <c r="M3">
+        <v>0.95671734565560995</v>
+      </c>
+      <c r="N3">
+        <v>0.989457346720234</v>
+      </c>
+      <c r="O3">
+        <v>0.97246462799203603</v>
+      </c>
+      <c r="P3">
+        <v>0.955811052408026</v>
+      </c>
+      <c r="Q3">
+        <v>0.99271455304559697</v>
+      </c>
+      <c r="R3">
+        <v>0.95081286894317096</v>
+      </c>
+      <c r="S3">
+        <v>0.98297012898020997</v>
+      </c>
+      <c r="T3">
+        <v>0.99063602642638104</v>
+      </c>
+      <c r="U3">
+        <v>0.94585405202807504</v>
+      </c>
+      <c r="V3">
+        <v>0.905571557020735</v>
+      </c>
+      <c r="W3">
+        <v>0.96061591771158195</v>
+      </c>
+      <c r="X3">
+        <v>0.97762232276956995</v>
+      </c>
+      <c r="Y3">
+        <v>0.97411458441288001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>0.96725712001331099</v>
+      </c>
+      <c r="C4">
+        <v>0.97812714608414397</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.98503501448953501</v>
+      </c>
+      <c r="F4">
+        <v>0.99737513579973702</v>
+      </c>
+      <c r="G4">
+        <v>0.97422103135988702</v>
+      </c>
+      <c r="H4">
+        <v>0.960369775827707</v>
+      </c>
+      <c r="I4">
+        <v>0.92482457527265405</v>
+      </c>
+      <c r="J4">
+        <v>0.98904940883270398</v>
+      </c>
+      <c r="K4">
+        <v>0.995277656135933</v>
+      </c>
+      <c r="L4">
+        <v>0.93534886762542901</v>
+      </c>
+      <c r="M4">
+        <v>0.98031198221139304</v>
+      </c>
+      <c r="N4">
+        <v>0.996513887591845</v>
+      </c>
+      <c r="O4">
+        <v>0.99356939415933498</v>
+      </c>
+      <c r="P4">
+        <v>0.99143277783695105</v>
+      </c>
+      <c r="Q4">
+        <v>0.99202851624639499</v>
+      </c>
+      <c r="R4">
+        <v>0.96749158853216499</v>
+      </c>
+      <c r="S4">
+        <v>0.99347938208459097</v>
+      </c>
+      <c r="T4">
+        <v>0.99286094742932396</v>
+      </c>
+      <c r="U4">
+        <v>0.98207906474182605</v>
+      </c>
+      <c r="V4">
+        <v>0.91648542836349101</v>
+      </c>
+      <c r="W4">
+        <v>0.98699419580866898</v>
+      </c>
+      <c r="X4">
+        <v>0.99339402637079099</v>
+      </c>
+      <c r="Y4">
+        <v>0.98245706350631001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5">
+        <v>0.94921039152962206</v>
+      </c>
+      <c r="C5">
+        <v>0.94387872719244403</v>
+      </c>
+      <c r="D5">
+        <v>0.98503501448953501</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.97609277173891895</v>
+      </c>
+      <c r="G5">
+        <v>0.98833669240104804</v>
+      </c>
+      <c r="H5">
+        <v>0.93491365364888401</v>
+      </c>
+      <c r="I5">
+        <v>0.86094689241963296</v>
+      </c>
+      <c r="J5">
+        <v>0.97309574260337295</v>
+      </c>
+      <c r="K5">
+        <v>0.97062228038145903</v>
+      </c>
+      <c r="L5">
+        <v>0.92978875365512204</v>
+      </c>
+      <c r="M5">
+        <v>0.959715318134859</v>
+      </c>
+      <c r="N5">
+        <v>0.97008111837903299</v>
+      </c>
+      <c r="O5">
+        <v>0.97495070812722995</v>
+      </c>
+      <c r="P5">
+        <v>0.99299991361123596</v>
+      </c>
+      <c r="Q5">
+        <v>0.95965022807225597</v>
+      </c>
+      <c r="R5">
+        <v>0.94010981741910704</v>
+      </c>
+      <c r="S5">
+        <v>0.96438228586489605</v>
+      </c>
+      <c r="T5">
+        <v>0.96189518581233202</v>
+      </c>
+      <c r="U5">
+        <v>0.99260788450091098</v>
+      </c>
+      <c r="V5">
+        <v>0.88776147305052799</v>
+      </c>
+      <c r="W5">
+        <v>0.97217826397940899</v>
+      </c>
+      <c r="X5">
+        <v>0.96446311144936203</v>
+      </c>
+      <c r="Y5">
+        <v>0.943442272863797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6">
+        <v>0.96846451383691001</v>
+      </c>
+      <c r="C6">
+        <v>0.97809553935409799</v>
+      </c>
+      <c r="D6">
+        <v>0.99737513579973702</v>
+      </c>
+      <c r="E6">
+        <v>0.97609277173891895</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.96924523484643499</v>
+      </c>
+      <c r="H6">
+        <v>0.97016771679296498</v>
+      </c>
+      <c r="I6">
+        <v>0.94503197128350602</v>
+      </c>
+      <c r="J6">
+        <v>0.99360619792985405</v>
+      </c>
+      <c r="K6">
+        <v>0.99954718966359002</v>
+      </c>
+      <c r="L6">
+        <v>0.94677630156855197</v>
+      </c>
+      <c r="M6">
+        <v>0.98131582758976099</v>
+      </c>
+      <c r="N6">
+        <v>0.99579987966873895</v>
+      </c>
+      <c r="O6">
+        <v>0.99829064863675199</v>
+      </c>
+      <c r="P6">
+        <v>0.9842042506648</v>
+      </c>
+      <c r="Q6">
+        <v>0.99150801941231703</v>
+      </c>
+      <c r="R6">
+        <v>0.96955749452683604</v>
+      </c>
+      <c r="S6">
+        <v>0.99688642354397405</v>
+      </c>
+      <c r="T6">
+        <v>0.99197286358598702</v>
+      </c>
+      <c r="U6">
+        <v>0.97002599123561795</v>
+      </c>
+      <c r="V6">
+        <v>0.90926343696243594</v>
+      </c>
+      <c r="W6">
+        <v>0.98770501121851595</v>
+      </c>
+      <c r="X6">
+        <v>0.99750865219835005</v>
+      </c>
+      <c r="Y6">
+        <v>0.99179717453283101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7">
+        <v>0.93652433222378895</v>
+      </c>
+      <c r="C7">
+        <v>0.92019313460045205</v>
+      </c>
+      <c r="D7">
+        <v>0.97422103135988702</v>
+      </c>
+      <c r="E7">
+        <v>0.98833669240104804</v>
+      </c>
+      <c r="F7">
+        <v>0.96924523484643499</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.93088356565428598</v>
+      </c>
+      <c r="I7">
+        <v>0.86294273059595905</v>
+      </c>
+      <c r="J7">
+        <v>0.95776078283076804</v>
+      </c>
+      <c r="K7">
+        <v>0.96274005840198196</v>
+      </c>
+      <c r="L7">
+        <v>0.95227413282671802</v>
+      </c>
+      <c r="M7">
+        <v>0.95271062035284004</v>
+      </c>
+      <c r="N7">
+        <v>0.95366848863340703</v>
+      </c>
+      <c r="O7">
+        <v>0.97038452502778005</v>
+      </c>
+      <c r="P7">
+        <v>0.97911147916486596</v>
+      </c>
+      <c r="Q7">
+        <v>0.94017304483977804</v>
+      </c>
+      <c r="R7">
+        <v>0.93050839269526697</v>
+      </c>
+      <c r="S7">
+        <v>0.96082938289498299</v>
+      </c>
+      <c r="T7">
+        <v>0.94154065674557097</v>
+      </c>
+      <c r="U7">
+        <v>0.98316442116701197</v>
+      </c>
+      <c r="V7">
+        <v>0.83221790439229004</v>
+      </c>
+      <c r="W7">
+        <v>0.94962674898768995</v>
+      </c>
+      <c r="X7">
+        <v>0.953260899508935</v>
+      </c>
+      <c r="Y7">
+        <v>0.93988684104237896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0.89558480319035005</v>
+      </c>
+      <c r="C8">
+        <v>0.97649613863337703</v>
+      </c>
+      <c r="D8">
+        <v>0.960369775827707</v>
+      </c>
+      <c r="E8">
+        <v>0.93491365364888401</v>
+      </c>
+      <c r="F8">
+        <v>0.97016771679296498</v>
+      </c>
+      <c r="G8">
+        <v>0.93088356565428598</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.946471121695446</v>
+      </c>
+      <c r="J8">
+        <v>0.96630960017312695</v>
+      </c>
+      <c r="K8">
+        <v>0.97305039397399495</v>
+      </c>
+      <c r="L8">
+        <v>0.93816551292587602</v>
+      </c>
+      <c r="M8">
+        <v>0.94871484812220597</v>
+      </c>
+      <c r="N8">
+        <v>0.96539568899763395</v>
+      </c>
+      <c r="O8">
+        <v>0.97449545364812995</v>
+      </c>
+      <c r="P8">
+        <v>0.93748005175812998</v>
+      </c>
+      <c r="Q8">
+        <v>0.964140873365533</v>
+      </c>
+      <c r="R8">
+        <v>0.94067924601002395</v>
+      </c>
+      <c r="S8">
+        <v>0.97571302150179995</v>
+      </c>
+      <c r="T8">
+        <v>0.96049144480258897</v>
+      </c>
+      <c r="U8">
+        <v>0.92793891490629898</v>
+      </c>
+      <c r="V8">
+        <v>0.82697381001358605</v>
+      </c>
+      <c r="W8">
+        <v>0.94114250506297203</v>
+      </c>
+      <c r="X8">
+        <v>0.96411504568681805</v>
+      </c>
+      <c r="Y8">
+        <v>0.97111855883459097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9">
+        <v>0.88728326204894503</v>
+      </c>
+      <c r="C9">
+        <v>0.93551395706342699</v>
+      </c>
+      <c r="D9">
+        <v>0.92482457527265405</v>
+      </c>
+      <c r="E9">
+        <v>0.86094689241963296</v>
+      </c>
+      <c r="F9">
+        <v>0.94503197128350602</v>
+      </c>
+      <c r="G9">
+        <v>0.86294273059595905</v>
+      </c>
+      <c r="H9">
+        <v>0.946471121695446</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.94362148874931195</v>
+      </c>
+      <c r="K9">
+        <v>0.95121165771920402</v>
+      </c>
+      <c r="L9">
+        <v>0.92663008403893499</v>
+      </c>
+      <c r="M9">
+        <v>0.94536678012572795</v>
+      </c>
+      <c r="N9">
+        <v>0.93775833087332605</v>
+      </c>
+      <c r="O9">
+        <v>0.94855968461112405</v>
+      </c>
+      <c r="P9">
+        <v>0.88688966909286104</v>
+      </c>
+      <c r="Q9">
+        <v>0.94320697222322802</v>
+      </c>
+      <c r="R9">
+        <v>0.95233625533755695</v>
+      </c>
+      <c r="S9">
+        <v>0.95836371061994996</v>
+      </c>
+      <c r="T9">
+        <v>0.93978474815625901</v>
+      </c>
+      <c r="U9">
+        <v>0.85292122144687599</v>
+      </c>
+      <c r="V9">
+        <v>0.83178995521389898</v>
+      </c>
+      <c r="W9">
+        <v>0.92649696087990396</v>
+      </c>
+      <c r="X9">
+        <v>0.95819634563907796</v>
+      </c>
+      <c r="Y9">
+        <v>0.97529287743170301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10">
+        <v>0.96720175186078094</v>
+      </c>
+      <c r="C10">
+        <v>0.96885063767628998</v>
+      </c>
+      <c r="D10">
+        <v>0.98904940883270398</v>
+      </c>
+      <c r="E10">
+        <v>0.97309574260337295</v>
+      </c>
+      <c r="F10">
+        <v>0.99360619792985405</v>
+      </c>
+      <c r="G10">
+        <v>0.95776078283076804</v>
+      </c>
+      <c r="H10">
+        <v>0.96630960017312695</v>
+      </c>
+      <c r="I10">
+        <v>0.94362148874931195</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.99419182851996002</v>
+      </c>
+      <c r="L10">
+        <v>0.95005212447257004</v>
+      </c>
+      <c r="M10">
+        <v>0.97498386839554896</v>
+      </c>
+      <c r="N10">
+        <v>0.98681511540773903</v>
+      </c>
+      <c r="O10">
+        <v>0.99445179531095096</v>
+      </c>
+      <c r="P10">
+        <v>0.97713272850765898</v>
+      </c>
+      <c r="Q10">
+        <v>0.98188768375038804</v>
+      </c>
+      <c r="R10">
+        <v>0.96477190408301705</v>
+      </c>
+      <c r="S10">
+        <v>0.98721891370255099</v>
+      </c>
+      <c r="T10">
+        <v>0.98298905778791901</v>
+      </c>
+      <c r="U10">
+        <v>0.95609615811314497</v>
+      </c>
+      <c r="V10">
+        <v>0.91700135751933798</v>
+      </c>
+      <c r="W10">
+        <v>0.99422303799575296</v>
+      </c>
+      <c r="X10">
+        <v>0.99377914135446699</v>
+      </c>
+      <c r="Y10">
+        <v>0.98596834794849098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>0.96816170900898102</v>
+      </c>
+      <c r="C11">
+        <v>0.97987967188473302</v>
+      </c>
+      <c r="D11">
+        <v>0.995277656135933</v>
+      </c>
+      <c r="E11">
+        <v>0.97062228038145903</v>
+      </c>
+      <c r="F11">
+        <v>0.99954718966359002</v>
+      </c>
+      <c r="G11">
+        <v>0.96274005840198196</v>
+      </c>
+      <c r="H11">
+        <v>0.97305039397399495</v>
+      </c>
+      <c r="I11">
+        <v>0.95121165771920402</v>
+      </c>
+      <c r="J11">
+        <v>0.99419182851996002</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.94545531183555598</v>
+      </c>
+      <c r="M11">
+        <v>0.97969328654864596</v>
+      </c>
+      <c r="N11">
+        <v>0.99562000417464602</v>
+      </c>
+      <c r="O11">
+        <v>0.99828552402958404</v>
+      </c>
+      <c r="P11">
+        <v>0.98002108846205305</v>
+      </c>
+      <c r="Q11">
+        <v>0.99199210291191797</v>
+      </c>
+      <c r="R11">
+        <v>0.96873946540326294</v>
+      </c>
+      <c r="S11">
+        <v>0.99676692458357896</v>
+      </c>
+      <c r="T11">
+        <v>0.99228370455266801</v>
+      </c>
+      <c r="U11">
+        <v>0.963639666200934</v>
+      </c>
+      <c r="V11">
+        <v>0.909921974705308</v>
+      </c>
+      <c r="W11">
+        <v>0.98708216116451697</v>
+      </c>
+      <c r="X11">
+        <v>0.99807305785956002</v>
+      </c>
+      <c r="Y11">
+        <v>0.994292755091706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>0.895397575810569</v>
+      </c>
+      <c r="C12">
+        <v>0.89068472782542396</v>
+      </c>
+      <c r="D12">
+        <v>0.93534886762542901</v>
+      </c>
+      <c r="E12">
+        <v>0.92978875365512204</v>
+      </c>
+      <c r="F12">
+        <v>0.94677630156855197</v>
+      </c>
+      <c r="G12">
+        <v>0.95227413282671802</v>
+      </c>
+      <c r="H12">
+        <v>0.93816551292587602</v>
+      </c>
+      <c r="I12">
+        <v>0.92663008403893499</v>
+      </c>
+      <c r="J12">
+        <v>0.95005212447257004</v>
+      </c>
+      <c r="K12">
+        <v>0.94545531183555598</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.94963901963742803</v>
+      </c>
+      <c r="N12">
+        <v>0.91815171042162502</v>
+      </c>
+      <c r="O12">
+        <v>0.95959649723169904</v>
+      </c>
+      <c r="P12">
+        <v>0.92610949128669895</v>
+      </c>
+      <c r="Q12">
+        <v>0.90837380578412397</v>
+      </c>
+      <c r="R12">
+        <v>0.94172650930317103</v>
+      </c>
+      <c r="S12">
+        <v>0.948709406256802</v>
+      </c>
+      <c r="T12">
+        <v>0.90656140239964</v>
+      </c>
+      <c r="U12">
+        <v>0.91139517080745103</v>
+      </c>
+      <c r="V12">
+        <v>0.75891230063223303</v>
+      </c>
+      <c r="W12">
+        <v>0.923809409432646</v>
+      </c>
+      <c r="X12">
+        <v>0.94113112557316503</v>
+      </c>
+      <c r="Y12">
+        <v>0.94924039869649901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13">
+        <v>0.927178794541477</v>
+      </c>
+      <c r="C13">
+        <v>0.95671734565560995</v>
+      </c>
+      <c r="D13">
+        <v>0.98031198221139304</v>
+      </c>
+      <c r="E13">
+        <v>0.959715318134859</v>
+      </c>
+      <c r="F13">
+        <v>0.98131582758976099</v>
+      </c>
+      <c r="G13">
+        <v>0.95271062035284004</v>
+      </c>
+      <c r="H13">
+        <v>0.94871484812220597</v>
+      </c>
+      <c r="I13">
+        <v>0.94536678012572795</v>
+      </c>
+      <c r="J13">
+        <v>0.97498386839554896</v>
+      </c>
+      <c r="K13">
+        <v>0.97969328654864596</v>
+      </c>
+      <c r="L13">
+        <v>0.94963901963742803</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.97701358683781403</v>
+      </c>
+      <c r="O13">
+        <v>0.98402732950918403</v>
+      </c>
+      <c r="P13">
+        <v>0.97986090069060805</v>
+      </c>
+      <c r="Q13">
+        <v>0.97641837062361703</v>
+      </c>
+      <c r="R13">
+        <v>0.99737564857053396</v>
+      </c>
+      <c r="S13">
+        <v>0.98193681690167001</v>
+      </c>
+      <c r="T13">
+        <v>0.976230663809876</v>
+      </c>
+      <c r="U13">
+        <v>0.96484910994177597</v>
+      </c>
+      <c r="V13">
+        <v>0.88038961531259396</v>
+      </c>
+      <c r="W13">
+        <v>0.97287416217362299</v>
+      </c>
+      <c r="X13">
+        <v>0.98471086005978703</v>
+      </c>
+      <c r="Y13">
+        <v>0.97641811559543601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14">
+        <v>0.96287950799642197</v>
+      </c>
+      <c r="C14">
+        <v>0.989457346720234</v>
+      </c>
+      <c r="D14">
+        <v>0.996513887591845</v>
+      </c>
+      <c r="E14">
+        <v>0.97008111837903299</v>
+      </c>
+      <c r="F14">
+        <v>0.99579987966873895</v>
+      </c>
+      <c r="G14">
+        <v>0.95366848863340703</v>
+      </c>
+      <c r="H14">
+        <v>0.96539568899763395</v>
+      </c>
+      <c r="I14">
+        <v>0.93775833087332605</v>
+      </c>
+      <c r="J14">
+        <v>0.98681511540773903</v>
+      </c>
+      <c r="K14">
+        <v>0.99562000417464602</v>
+      </c>
+      <c r="L14">
+        <v>0.91815171042162502</v>
+      </c>
+      <c r="M14">
+        <v>0.97701358683781403</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0.99064231018481497</v>
+      </c>
+      <c r="P14">
+        <v>0.98217923129824802</v>
+      </c>
+      <c r="Q14">
+        <v>0.99881994651763795</v>
+      </c>
+      <c r="R14">
+        <v>0.967067543895611</v>
+      </c>
+      <c r="S14">
+        <v>0.994172632446786</v>
+      </c>
+      <c r="T14">
+        <v>0.99909506039664597</v>
+      </c>
+      <c r="U14">
+        <v>0.96934420732507898</v>
+      </c>
+      <c r="V14">
+        <v>0.92805185001901302</v>
+      </c>
+      <c r="W14">
+        <v>0.98493438441570402</v>
+      </c>
+      <c r="X14">
+        <v>0.99505760972157398</v>
+      </c>
+      <c r="Y14">
+        <v>0.98684925809519697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>0.96259179807754203</v>
+      </c>
+      <c r="C15">
+        <v>0.97246462799203603</v>
+      </c>
+      <c r="D15">
+        <v>0.99356939415933498</v>
+      </c>
+      <c r="E15">
+        <v>0.97495070812722995</v>
+      </c>
+      <c r="F15">
+        <v>0.99829064863675199</v>
+      </c>
+      <c r="G15">
+        <v>0.97038452502778005</v>
+      </c>
+      <c r="H15">
+        <v>0.97449545364812995</v>
+      </c>
+      <c r="I15">
+        <v>0.94855968461112405</v>
+      </c>
+      <c r="J15">
+        <v>0.99445179531095096</v>
+      </c>
+      <c r="K15">
+        <v>0.99828552402958404</v>
+      </c>
+      <c r="L15">
+        <v>0.95959649723169904</v>
+      </c>
+      <c r="M15">
+        <v>0.98402732950918403</v>
+      </c>
+      <c r="N15">
+        <v>0.99064231018481497</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.98293283468097203</v>
+      </c>
+      <c r="Q15">
+        <v>0.98573591948167105</v>
+      </c>
+      <c r="R15">
+        <v>0.97285001074233801</v>
+      </c>
+      <c r="S15">
+        <v>0.99470150668573099</v>
+      </c>
+      <c r="T15">
+        <v>0.98594115141692995</v>
+      </c>
+      <c r="U15">
+        <v>0.96746331532488805</v>
+      </c>
+      <c r="V15">
+        <v>0.89297629539226198</v>
+      </c>
+      <c r="W15">
+        <v>0.98484942624406302</v>
+      </c>
+      <c r="X15">
+        <v>0.99554913548161195</v>
+      </c>
+      <c r="Y15">
+        <v>0.99212335928869599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>0.95469641244199499</v>
+      </c>
+      <c r="C16">
+        <v>0.955811052408026</v>
+      </c>
+      <c r="D16">
+        <v>0.99143277783695105</v>
+      </c>
+      <c r="E16">
+        <v>0.99299991361123596</v>
+      </c>
+      <c r="F16">
+        <v>0.9842042506648</v>
+      </c>
+      <c r="G16">
+        <v>0.97911147916486596</v>
+      </c>
+      <c r="H16">
+        <v>0.93748005175812998</v>
+      </c>
+      <c r="I16">
+        <v>0.88688966909286104</v>
+      </c>
+      <c r="J16">
+        <v>0.97713272850765898</v>
+      </c>
+      <c r="K16">
+        <v>0.98002108846205305</v>
+      </c>
+      <c r="L16">
+        <v>0.92610949128669895</v>
+      </c>
+      <c r="M16">
+        <v>0.97986090069060805</v>
+      </c>
+      <c r="N16">
+        <v>0.98217923129824802</v>
+      </c>
+      <c r="O16">
+        <v>0.98293283468097203</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.97558624256623006</v>
+      </c>
+      <c r="R16">
+        <v>0.96487420553776704</v>
+      </c>
+      <c r="S16">
+        <v>0.97418126227206303</v>
+      </c>
+      <c r="T16">
+        <v>0.97781025221556905</v>
+      </c>
+      <c r="U16">
+        <v>0.99437728223701405</v>
+      </c>
+      <c r="V16">
+        <v>0.90694787591786896</v>
+      </c>
+      <c r="W16">
+        <v>0.98003733815268201</v>
+      </c>
+      <c r="X16">
+        <v>0.97819008900351101</v>
+      </c>
+      <c r="Y16">
+        <v>0.95897262012617401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17">
+        <v>0.953700823160613</v>
+      </c>
+      <c r="C17">
+        <v>0.99271455304559697</v>
+      </c>
+      <c r="D17">
+        <v>0.99202851624639499</v>
+      </c>
+      <c r="E17">
+        <v>0.95965022807225597</v>
+      </c>
+      <c r="F17">
+        <v>0.99150801941231703</v>
+      </c>
+      <c r="G17">
+        <v>0.94017304483977804</v>
+      </c>
+      <c r="H17">
+        <v>0.964140873365533</v>
+      </c>
+      <c r="I17">
+        <v>0.94320697222322802</v>
+      </c>
+      <c r="J17">
+        <v>0.98188768375038804</v>
+      </c>
+      <c r="K17">
+        <v>0.99199210291191797</v>
+      </c>
+      <c r="L17">
+        <v>0.90837380578412397</v>
+      </c>
+      <c r="M17">
+        <v>0.97641837062361703</v>
+      </c>
+      <c r="N17">
+        <v>0.99881994651763795</v>
+      </c>
+      <c r="O17">
+        <v>0.98573591948167105</v>
+      </c>
+      <c r="P17">
+        <v>0.97558624256623006</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.96939273905775303</v>
+      </c>
+      <c r="S17">
+        <v>0.99227442520093001</v>
+      </c>
+      <c r="T17">
+        <v>0.99975999426876905</v>
+      </c>
+      <c r="U17">
+        <v>0.96154176343143005</v>
+      </c>
+      <c r="V17">
+        <v>0.92938938144843497</v>
+      </c>
+      <c r="W17">
+        <v>0.98057726208312002</v>
+      </c>
+      <c r="X17">
+        <v>0.99312812311211596</v>
+      </c>
+      <c r="Y17">
+        <v>0.985929315147973</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>0.90801639639600995</v>
+      </c>
+      <c r="C18">
+        <v>0.95081286894317096</v>
+      </c>
+      <c r="D18">
+        <v>0.96749158853216499</v>
+      </c>
+      <c r="E18">
+        <v>0.94010981741910704</v>
+      </c>
+      <c r="F18">
+        <v>0.96955749452683604</v>
+      </c>
+      <c r="G18">
+        <v>0.93050839269526697</v>
+      </c>
+      <c r="H18">
+        <v>0.94067924601002395</v>
+      </c>
+      <c r="I18">
+        <v>0.95233625533755695</v>
+      </c>
+      <c r="J18">
+        <v>0.96477190408301705</v>
+      </c>
+      <c r="K18">
+        <v>0.96873946540326294</v>
+      </c>
+      <c r="L18">
+        <v>0.94172650930317103</v>
+      </c>
+      <c r="M18">
+        <v>0.99737564857053396</v>
+      </c>
+      <c r="N18">
+        <v>0.967067543895611</v>
+      </c>
+      <c r="O18">
+        <v>0.97285001074233801</v>
+      </c>
+      <c r="P18">
+        <v>0.96487420553776704</v>
+      </c>
+      <c r="Q18">
+        <v>0.96939273905775303</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.973822664936563</v>
+      </c>
+      <c r="T18">
+        <v>0.968438751360992</v>
+      </c>
+      <c r="U18">
+        <v>0.94677887715948605</v>
+      </c>
+      <c r="V18">
+        <v>0.87136903953145395</v>
+      </c>
+      <c r="W18">
+        <v>0.96265380102332898</v>
+      </c>
+      <c r="X18">
+        <v>0.97703696550118702</v>
+      </c>
+      <c r="Y18">
+        <v>0.97071038130635601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>0.95329766532426696</v>
+      </c>
+      <c r="C19">
+        <v>0.98297012898020997</v>
+      </c>
+      <c r="D19">
+        <v>0.99347938208459097</v>
+      </c>
+      <c r="E19">
+        <v>0.96438228586489605</v>
+      </c>
+      <c r="F19">
+        <v>0.99688642354397405</v>
+      </c>
+      <c r="G19">
+        <v>0.96082938289498299</v>
+      </c>
+      <c r="H19">
+        <v>0.97571302150179995</v>
+      </c>
+      <c r="I19">
+        <v>0.95836371061994996</v>
+      </c>
+      <c r="J19">
+        <v>0.98721891370255099</v>
+      </c>
+      <c r="K19">
+        <v>0.99676692458357896</v>
+      </c>
+      <c r="L19">
+        <v>0.948709406256802</v>
+      </c>
+      <c r="M19">
+        <v>0.98193681690167001</v>
+      </c>
+      <c r="N19">
+        <v>0.994172632446786</v>
+      </c>
+      <c r="O19">
+        <v>0.99470150668573099</v>
+      </c>
+      <c r="P19">
+        <v>0.97418126227206303</v>
+      </c>
+      <c r="Q19">
+        <v>0.99227442520093001</v>
+      </c>
+      <c r="R19">
+        <v>0.973822664936563</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.99120678301598397</v>
+      </c>
+      <c r="U19">
+        <v>0.96140327857915397</v>
+      </c>
+      <c r="V19">
+        <v>0.89291379671487103</v>
+      </c>
+      <c r="W19">
+        <v>0.97798165373772905</v>
+      </c>
+      <c r="X19">
+        <v>0.995557678471929</v>
+      </c>
+      <c r="Y19">
+        <v>0.99431627353656404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>0.95821458927554304</v>
+      </c>
+      <c r="C20">
+        <v>0.99063602642638104</v>
+      </c>
+      <c r="D20">
+        <v>0.99286094742932396</v>
+      </c>
+      <c r="E20">
+        <v>0.96189518581233202</v>
+      </c>
+      <c r="F20">
+        <v>0.99197286358598702</v>
+      </c>
+      <c r="G20">
+        <v>0.94154065674557097</v>
+      </c>
+      <c r="H20">
+        <v>0.96049144480258897</v>
+      </c>
+      <c r="I20">
+        <v>0.93978474815625901</v>
+      </c>
+      <c r="J20">
+        <v>0.98298905778791901</v>
+      </c>
+      <c r="K20">
+        <v>0.99228370455266801</v>
+      </c>
+      <c r="L20">
+        <v>0.90656140239964</v>
+      </c>
+      <c r="M20">
+        <v>0.976230663809876</v>
+      </c>
+      <c r="N20">
+        <v>0.99909506039664597</v>
+      </c>
+      <c r="O20">
+        <v>0.98594115141692995</v>
+      </c>
+      <c r="P20">
+        <v>0.97781025221556905</v>
+      </c>
+      <c r="Q20">
+        <v>0.99975999426876905</v>
+      </c>
+      <c r="R20">
+        <v>0.968438751360992</v>
+      </c>
+      <c r="S20">
+        <v>0.99120678301598397</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.96315429511113504</v>
+      </c>
+      <c r="V20">
+        <v>0.93557609584474599</v>
+      </c>
+      <c r="W20">
+        <v>0.98334971951144301</v>
+      </c>
+      <c r="X20">
+        <v>0.99367060387315198</v>
+      </c>
+      <c r="Y20">
+        <v>0.98497520923676796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21">
+        <v>0.93073629234779498</v>
+      </c>
+      <c r="C21">
+        <v>0.94585405202807504</v>
+      </c>
+      <c r="D21">
+        <v>0.98207906474182605</v>
+      </c>
+      <c r="E21">
+        <v>0.99260788450091098</v>
+      </c>
+      <c r="F21">
+        <v>0.97002599123561795</v>
+      </c>
+      <c r="G21">
+        <v>0.98316442116701197</v>
+      </c>
+      <c r="H21">
+        <v>0.92793891490629898</v>
+      </c>
+      <c r="I21">
+        <v>0.85292122144687599</v>
+      </c>
+      <c r="J21">
+        <v>0.95609615811314497</v>
+      </c>
+      <c r="K21">
+        <v>0.963639666200934</v>
+      </c>
+      <c r="L21">
+        <v>0.91139517080745103</v>
+      </c>
+      <c r="M21">
+        <v>0.96484910994177597</v>
+      </c>
+      <c r="N21">
+        <v>0.96934420732507898</v>
+      </c>
+      <c r="O21">
+        <v>0.96746331532488805</v>
+      </c>
+      <c r="P21">
+        <v>0.99437728223701405</v>
+      </c>
+      <c r="Q21">
+        <v>0.96154176343143005</v>
+      </c>
+      <c r="R21">
+        <v>0.94677887715948605</v>
+      </c>
+      <c r="S21">
+        <v>0.96140327857915397</v>
+      </c>
+      <c r="T21">
+        <v>0.96315429511113504</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.87657218793981395</v>
+      </c>
+      <c r="W21">
+        <v>0.95774938935690801</v>
+      </c>
+      <c r="X21">
+        <v>0.95818089820416996</v>
+      </c>
+      <c r="Y21">
+        <v>0.93653374863625405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22">
+        <v>0.93544268072518999</v>
+      </c>
+      <c r="C22">
+        <v>0.905571557020735</v>
+      </c>
+      <c r="D22">
+        <v>0.91648542836349101</v>
+      </c>
+      <c r="E22">
+        <v>0.88776147305052799</v>
+      </c>
+      <c r="F22">
+        <v>0.90926343696243594</v>
+      </c>
+      <c r="G22">
+        <v>0.83221790439229004</v>
+      </c>
+      <c r="H22">
+        <v>0.82697381001358605</v>
+      </c>
+      <c r="I22">
+        <v>0.83178995521389898</v>
+      </c>
+      <c r="J22">
+        <v>0.91700135751933798</v>
+      </c>
+      <c r="K22">
+        <v>0.909921974705308</v>
+      </c>
+      <c r="L22">
+        <v>0.75891230063223303</v>
+      </c>
+      <c r="M22">
+        <v>0.88038961531259396</v>
+      </c>
+      <c r="N22">
+        <v>0.92805185001901302</v>
+      </c>
+      <c r="O22">
+        <v>0.89297629539226198</v>
+      </c>
+      <c r="P22">
+        <v>0.90694787591786896</v>
+      </c>
+      <c r="Q22">
+        <v>0.92938938144843497</v>
+      </c>
+      <c r="R22">
+        <v>0.87136903953145395</v>
+      </c>
+      <c r="S22">
+        <v>0.89291379671487103</v>
+      </c>
+      <c r="T22">
+        <v>0.93557609584474599</v>
+      </c>
+      <c r="U22">
+        <v>0.87657218793981395</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0.94786261070064703</v>
+      </c>
+      <c r="X22">
+        <v>0.92181449463875997</v>
+      </c>
+      <c r="Y22">
+        <v>0.89088759277244001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23">
+        <v>0.97089955620977098</v>
+      </c>
+      <c r="C23">
+        <v>0.96061591771158195</v>
+      </c>
+      <c r="D23">
+        <v>0.98699419580866898</v>
+      </c>
+      <c r="E23">
+        <v>0.97217826397940899</v>
+      </c>
+      <c r="F23">
+        <v>0.98770501121851595</v>
+      </c>
+      <c r="G23">
+        <v>0.94962674898768995</v>
+      </c>
+      <c r="H23">
+        <v>0.94114250506297203</v>
+      </c>
+      <c r="I23">
+        <v>0.92649696087990396</v>
+      </c>
+      <c r="J23">
+        <v>0.99422303799575296</v>
+      </c>
+      <c r="K23">
+        <v>0.98708216116451697</v>
+      </c>
+      <c r="L23">
+        <v>0.923809409432646</v>
+      </c>
+      <c r="M23">
+        <v>0.97287416217362299</v>
+      </c>
+      <c r="N23">
+        <v>0.98493438441570402</v>
+      </c>
+      <c r="O23">
+        <v>0.98484942624406302</v>
+      </c>
+      <c r="P23">
+        <v>0.98003733815268201</v>
+      </c>
+      <c r="Q23">
+        <v>0.98057726208312002</v>
+      </c>
+      <c r="R23">
+        <v>0.96265380102332898</v>
+      </c>
+      <c r="S23">
+        <v>0.97798165373772905</v>
+      </c>
+      <c r="T23">
+        <v>0.98334971951144301</v>
+      </c>
+      <c r="U23">
+        <v>0.95774938935690801</v>
+      </c>
+      <c r="V23">
+        <v>0.94786261070064703</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0.990728082266357</v>
+      </c>
+      <c r="Y23">
+        <v>0.97395282202084899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24">
+        <v>0.96718936751430196</v>
+      </c>
+      <c r="C24">
+        <v>0.97762232276956995</v>
+      </c>
+      <c r="D24">
+        <v>0.99339402637079099</v>
+      </c>
+      <c r="E24">
+        <v>0.96446311144936203</v>
+      </c>
+      <c r="F24">
+        <v>0.99750865219835005</v>
+      </c>
+      <c r="G24">
+        <v>0.953260899508935</v>
+      </c>
+      <c r="H24">
+        <v>0.96411504568681805</v>
+      </c>
+      <c r="I24">
+        <v>0.95819634563907796</v>
+      </c>
+      <c r="J24">
+        <v>0.99377914135446699</v>
+      </c>
+      <c r="K24">
+        <v>0.99807305785956002</v>
+      </c>
+      <c r="L24">
+        <v>0.94113112557316503</v>
+      </c>
+      <c r="M24">
+        <v>0.98471086005978703</v>
+      </c>
+      <c r="N24">
+        <v>0.99505760972157398</v>
+      </c>
+      <c r="O24">
+        <v>0.99554913548161195</v>
+      </c>
+      <c r="P24">
+        <v>0.97819008900351101</v>
+      </c>
+      <c r="Q24">
+        <v>0.99312812311211596</v>
+      </c>
+      <c r="R24">
+        <v>0.97703696550118702</v>
+      </c>
+      <c r="S24">
+        <v>0.995557678471929</v>
+      </c>
+      <c r="T24">
+        <v>0.99367060387315198</v>
+      </c>
+      <c r="U24">
+        <v>0.95818089820416996</v>
+      </c>
+      <c r="V24">
+        <v>0.92181449463875997</v>
+      </c>
+      <c r="W24">
+        <v>0.990728082266357</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.99465723917426496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>0.95759113097848603</v>
+      </c>
+      <c r="C25">
+        <v>0.97411458441288001</v>
+      </c>
+      <c r="D25">
+        <v>0.98245706350631001</v>
+      </c>
+      <c r="E25">
+        <v>0.943442272863797</v>
+      </c>
+      <c r="F25">
+        <v>0.99179717453283101</v>
+      </c>
+      <c r="G25">
+        <v>0.93988684104237896</v>
+      </c>
+      <c r="H25">
+        <v>0.97111855883459097</v>
+      </c>
+      <c r="I25">
+        <v>0.97529287743170301</v>
+      </c>
+      <c r="J25">
+        <v>0.98596834794849098</v>
+      </c>
+      <c r="K25">
+        <v>0.994292755091706</v>
+      </c>
+      <c r="L25">
+        <v>0.94924039869649901</v>
+      </c>
+      <c r="M25">
+        <v>0.97641811559543601</v>
+      </c>
+      <c r="N25">
+        <v>0.98684925809519697</v>
+      </c>
+      <c r="O25">
+        <v>0.99212335928869599</v>
+      </c>
+      <c r="P25">
+        <v>0.95897262012617401</v>
+      </c>
+      <c r="Q25">
+        <v>0.985929315147973</v>
+      </c>
+      <c r="R25">
+        <v>0.97071038130635601</v>
+      </c>
+      <c r="S25">
+        <v>0.99431627353656404</v>
+      </c>
+      <c r="T25">
+        <v>0.98497520923676796</v>
+      </c>
+      <c r="U25">
+        <v>0.93653374863625405</v>
+      </c>
+      <c r="V25">
+        <v>0.89088759277244001</v>
+      </c>
+      <c r="W25">
+        <v>0.97395282202084899</v>
+      </c>
+      <c r="X25">
+        <v>0.99465723917426496</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B4:B25)</f>
+        <v>0.94443274884148498</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27">
+        <f>_xlfn.T.TEST(B28:B33,B4:B25,2,3)</f>
+        <v>1.383839628875798E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28">
+        <v>0.92363449451184798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0.92363449451184798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.92363449451184798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0.92363449451184798</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0.92363449451184798</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.92363449451184798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>